--- a/sputnik/personal/uch/uch40.xlsx
+++ b/sputnik/personal/uch/uch40.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -58,6 +55,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №40</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,15 +203,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +528,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,9 +543,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -550,7 +560,7 @@
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6">
         <v>660</v>
@@ -562,7 +572,7 @@
         <v>43221</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>9917.6</v>
@@ -574,7 +584,7 @@
         <v>43456</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
@@ -586,7 +596,7 @@
         <v>43456</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
@@ -598,7 +608,7 @@
         <v>43456</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>867.36</v>
@@ -610,7 +620,7 @@
         <v>43456</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8">
@@ -622,7 +632,7 @@
         <v>43466</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7">
         <v>844.8</v>
@@ -634,7 +644,7 @@
         <v>43586</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11">
         <v>9776.7999999999993</v>
@@ -646,7 +656,7 @@
         <v>43853</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="11">
@@ -658,7 +668,7 @@
         <v>43854</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="7">
@@ -670,7 +680,7 @@
         <v>43854</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="8">
         <v>1136.51</v>
@@ -682,7 +692,7 @@
         <v>43854</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8">
@@ -690,15 +700,12 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch40.xlsx
+++ b/sputnik/personal/uch/uch40.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №40</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -213,9 +216,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -528,7 +528,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -700,9 +700,15 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
+        <v>11000</v>
+      </c>
       <c r="D15" s="8"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch40.xlsx
+++ b/sputnik/personal/uch/uch40.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -218,6 +221,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -525,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A16" sqref="A16:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -710,6 +714,42 @@
         <v>11000</v>
       </c>
       <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8">
+        <v>11730.4</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch40.xlsx
+++ b/sputnik/personal/uch/uch40.xlsx
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +85,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -181,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -222,6 +229,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,7 +550,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D20"/>
+      <selection activeCell="A13" sqref="A13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -608,26 +626,26 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="18">
         <v>43456</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="20">
         <v>867.36</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="18">
         <v>43456</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
         <v>867.36</v>
       </c>
     </row>
@@ -680,26 +698,26 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="22">
         <v>43854</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="20">
         <v>1136.51</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="22">
         <v>43854</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20">
         <v>1136.51</v>
       </c>
     </row>
